--- a/План тестирования.xlsx
+++ b/План тестирования.xlsx
@@ -113,30 +113,75 @@
     <t>Пользователь авторизован в системе как тренер и хочет посмотреть свои тренировки на неделю</t>
   </si>
   <si>
-    <t>1. Выполнение сценария 1.1
-2. Пользователь выбирает пункт просмотра графика работы в личном кабинете</t>
-  </si>
-  <si>
-    <t>1. Выполнение сценария 1.1
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Проверка статуса абонемента администратором</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован в системе как администратор и хочет посмотрть статус абонемента клиента</t>
+  </si>
+  <si>
+    <t>Редактирование диапозона стоимости дополнительных тренировок</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован в системе как администратор и хочет редактировать диапозон стоимости дополнительных тренировок</t>
+  </si>
+  <si>
+    <t>Инициализация сесии данного пользователя</t>
+  </si>
+  <si>
+    <t>Завершение сессии данного пользователя</t>
+  </si>
+  <si>
+    <t>Добавление в БД данных о новой тренировке</t>
+  </si>
+  <si>
+    <t>Вывод таблицы графика работы для данного тренера</t>
+  </si>
+  <si>
+    <t>Редактирование в БД данных о графике работы тренера</t>
+  </si>
+  <si>
+    <t>Релактирование в БД данных о стоимости дополнительных тренировок у данного тренера</t>
+  </si>
+  <si>
+    <t>Вывод списка тренировок тренера на неделю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод информации об абонементе клиента по введенному номеру </t>
+  </si>
+  <si>
+    <t>Изменение диапозона допустимой стоимости дполнительных тренировок</t>
+  </si>
+  <si>
+    <t>1. Выполнение сценария 1.1 для клиента
 2.  Пользователь выбирает пункт записи на тренировку в личном кабинете
 3. Пользователь выбирает филиал клуба, удобное ему время, дисцмплину и тренера
 4. Нажатие на кнопку подтверждения</t>
   </si>
   <si>
-    <t>1. Выполнение сценария 1.1
+    <t>1. Выполнение сценария 1.1 для тренера
+2. Пользователь выбирает пункт просмотра графика работы в личном кабинете</t>
+  </si>
+  <si>
+    <t>1. Выполнение сценария 1.1 для тренера
 2. Пользователь выбирает пункт редактирования графика работы в личном кабинете
 3. Пользователь помечает свои рабочие дни
 4. Нажатие кнопки подтверждения</t>
   </si>
   <si>
-    <t>1. Выполнение сценария 1.1
+    <t>1. Выполнение сценария 1.1 для тренера
 2. Пользователь выбирает пункт редактирования стоимости дополнительных тренировок в личном кабинете
 3. Пользователь редактирует стоимость
 4. Нажатие кнопки подтверждения</t>
   </si>
   <si>
     <r>
-      <t>1. Выполнение сценария 1.1</t>
+      <t>1. Выполнение сценария 1.1 для тренера</t>
     </r>
     <r>
       <rPr>
@@ -164,69 +209,32 @@
     </r>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>Проверка статуса абонемента администратором</t>
-  </si>
-  <si>
-    <t>Пользователь авторизован в системе как администратор и хочет посмотрть статус абонемента клиента</t>
-  </si>
-  <si>
-    <t>1. Выполнение сценария 1.1
+    <t>1. Выполнение сценария 1.1 для администратора
 2. Пользователь выбирает в личном кабинете пункт просмотра статуса абонемента</t>
   </si>
   <si>
-    <t>Редактирование диапозона стоимости дополнительных тренировок</t>
-  </si>
-  <si>
-    <t>Пользователь авторизован в системе как администратор и хочет редактировать диапозон стоимости дополнительных тренировок</t>
-  </si>
-  <si>
-    <t>1. Выполнение сценария 1.1
+    <t>1. Выполнение сценария 1.1 для администратора
 2. Пользователь выбирает в личном кабинете пункт редактирования диапозона стоимости дополнительных тренировок</t>
-  </si>
-  <si>
-    <t>Инициализация сесии данного пользователя</t>
-  </si>
-  <si>
-    <t>Завершение сессии данного пользователя</t>
-  </si>
-  <si>
-    <t>Добавление в БД данных о новой тренировке</t>
-  </si>
-  <si>
-    <t>Вывод таблицы графика работы для данного тренера</t>
-  </si>
-  <si>
-    <t>Редактирование в БД данных о графике работы тренера</t>
-  </si>
-  <si>
-    <t>Релактирование в БД данных о стоимости дополнительных тренировок у данного тренера</t>
-  </si>
-  <si>
-    <t>Вывод списка тренировок тренера на неделю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод информации об абонементе клиента по введенному номеру </t>
-  </si>
-  <si>
-    <t>Изменение диапозона допустимой стоимости дполнительных тренировок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,11 +445,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -449,32 +457,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -762,7 +776,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
@@ -832,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
@@ -847,11 +861,11 @@
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
+      <c r="D4" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
@@ -866,11 +880,11 @@
       <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
+      <c r="D5" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -885,11 +899,11 @@
       <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
+      <c r="D6" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -904,11 +918,11 @@
       <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -923,49 +937,49 @@
       <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
+      <c r="D8" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>

--- a/План тестирования.xlsx
+++ b/План тестирования.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
   <si>
     <t>Номер</t>
   </si>
@@ -150,9 +150,6 @@
     <t>1. Выполнение сценария 1.1 с ролью "Тренер"</t>
   </si>
   <si>
-    <t>Просмотр расписания тренировок тренера</t>
-  </si>
-  <si>
     <t>Пользователь авторизован в системе как тренер и хочет посмотреть свой график тренировок</t>
   </si>
   <si>
@@ -220,26 +217,174 @@
   </si>
   <si>
     <t>Данные в БД были успешно записаны, вывелось сообщение об успешной операции</t>
+  </si>
+  <si>
+    <t>Неуспешная атворизация пользователей</t>
+  </si>
+  <si>
+    <t>Пользователь заполнил не все поля</t>
+  </si>
+  <si>
+    <t>Пользователь ввел неверные данные при авторизации</t>
+  </si>
+  <si>
+    <t>2. Ввод данных за исключением пароля</t>
+  </si>
+  <si>
+    <t>2. Ввод данных с ошибкой</t>
+  </si>
+  <si>
+    <t>Авторизация не должна пройти успешно, пользователь должен остаться на той же странице и увидеть ошибку о невведенных данных</t>
+  </si>
+  <si>
+    <t>Авторизация не должна закончиться успешно, пользователю выводится сообщение с ошибкой</t>
+  </si>
+  <si>
+    <t>Авторизация не удалась, сообщение с ошибкой ввода данных было выведено</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Выход из системы в неавторизованном состоянии</t>
+  </si>
+  <si>
+    <t>1. Переход по адресу ../logout</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован в системе и переходит на страницу logout</t>
+  </si>
+  <si>
+    <t>Пользователь должен быть перенаправлен на главную страницу сайта и должно высветиться сообщение с ошибкой</t>
+  </si>
+  <si>
+    <t>Пользователь перенаправлен на главгую страницу, выведено сообщение с ошибкой</t>
+  </si>
+  <si>
+    <t>Попытка записи на тренировку без заполнения всех полей</t>
+  </si>
+  <si>
+    <t>Отсутствие подходящих тренеров в системе</t>
+  </si>
+  <si>
+    <t>Выполнение шагов 1, 2, 3 (не заполняя одно или более поле), 4 из пункта 2.1</t>
+  </si>
+  <si>
+    <t>Выполнение шагов 1, 2, 3, 4 из пункта 2.1</t>
+  </si>
+  <si>
+    <t>Клиент хочет записаться на тренирвоку, однако не ввел все данные</t>
+  </si>
+  <si>
+    <t>Вывод сообщения о не полностью введенных данных</t>
+  </si>
+  <si>
+    <t>Клиент хочет записаться на тренирвоку, однако подходящих тренеров к его запросу не было найдено</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об отсутствии тренеров, удвлетворяющих запросу пользователя</t>
+  </si>
+  <si>
+    <t>Сообщение успешно выведено</t>
+  </si>
+  <si>
+    <t>Сообщение успешно выведено, запись на тренировку не удалась</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Просмотр расписания при отсутствии тренировок</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Пользователь хочет посмотреть расписание тренировок, но он не записан ни на одну</t>
+  </si>
+  <si>
+    <t>Выполнение шагов 1, 2 из пункта 2.2</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об отсутствии тренировок, на которые записался клиент</t>
+  </si>
+  <si>
+    <t>Просмотр расписания занятий тренера</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Просмотр расписания занятий в случае отсутствия тренировок</t>
+  </si>
+  <si>
+    <t>Пользователь авторизован как тренер и хочет увидеть расписание своих тренирвоок</t>
+  </si>
+  <si>
+    <t>Выполнение шагов 1, 2 из пункта 3.1</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об отсутсвии тренировок у тренера</t>
+  </si>
+  <si>
+    <t>Просмотр расписания занятий в случае когда пользователь не авторизован как тренер</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизирова как тренер в системе и решает перейти на страницу просмотра расписания тренера</t>
+  </si>
+  <si>
+    <t>1. Переход по адресу ../viewShedule</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об ошибке недостаточности прав доступа к странице</t>
+  </si>
+  <si>
+    <t>Добавление тренировок на аккаунт в случае неправильного ввода логина пользователя</t>
+  </si>
+  <si>
+    <t>Администратор хочет пополнить баланс клиента, но логнн клиента он вводит неверно</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об ошибке ввода данных.</t>
+  </si>
+  <si>
+    <t>Сообщение успешно выведено.</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Выполнение шагов 1, 2, 3 (с неправильными данными), 4</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>Добавление тренировок в случае ввода отрицательного количества тренировок</t>
+  </si>
+  <si>
+    <t>Администратор хочет пополнить баланс клиента, но количество тренировок он вводит отрицательным</t>
+  </si>
+  <si>
+    <t>Выполнение шагов 1, 2, 3 (с отрицательным количеством тренировок), 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,14 +415,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -319,18 +456,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FF66FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -538,43 +675,116 @@
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -585,39 +795,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -625,197 +846,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -828,6 +1007,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFF9F9F9"/>
     </mruColors>
@@ -1106,21 +1286,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1146,571 +1326,1022 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="13" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G11" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="18" t="s">
+    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B16" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="45" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G21" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="45" t="s">
+      <c r="G46" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="49"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G50" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
+  <mergeCells count="114">
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/План тестирования.xlsx
+++ b/План тестирования.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>Номер</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Выполнение шагов 1, 2, 3 (с отрицательным количеством тренировок), 4</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -838,7 +841,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -852,11 +855,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,137 +879,116 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1288,19 +1282,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,761 +1320,763 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="8" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="7" t="s">
+    <row r="6" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="7" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="24" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="7" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="8" t="s">
+    <row r="12" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="8" t="s">
+    <row r="17" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="8" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="8" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="8" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+    <row r="22" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+    <row r="24" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="8" t="s">
+    <row r="26" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="8" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="38"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="8" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="8" t="s">
+    <row r="33" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="28" t="s">
+    <row r="35" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+    <row r="37" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="54" t="s">
+    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="54" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="38"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="54" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="54" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="54" t="s">
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="54" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="47" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="16"/>
+    <row r="51" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="16"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -2228,95 +2224,6 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="D50:D53"/>
@@ -2341,6 +2248,95 @@
     <mergeCell ref="G42:G45"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
     <mergeCell ref="F34:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
